--- a/Model Validations/Training Pairings.xlsx
+++ b/Model Validations/Training Pairings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important File\Crew Management\POC\POC Updated Data Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important File\Crew Management\POC\Vendors\Mu Sigma\Model Output\Model Validations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F2D2E4-3B89-4CAB-8FD6-3A1DB634539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818AD18-3808-4F9C-8018-25B15D421F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="1st Sep" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
   <si>
     <t>Instrutor</t>
   </si>
@@ -58,36 +57,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>1st Sep</t>
-  </si>
-  <si>
-    <t>2nd Sep</t>
-  </si>
-  <si>
-    <t>3rd Sep</t>
-  </si>
-  <si>
-    <t>4th Sep</t>
-  </si>
-  <si>
-    <t>5th Sep</t>
-  </si>
-  <si>
-    <t>6th Sep</t>
-  </si>
-  <si>
-    <t>7th Sep</t>
-  </si>
-  <si>
-    <t>8th Sep</t>
-  </si>
-  <si>
-    <t>9th Sep</t>
-  </si>
-  <si>
-    <t>10th Sep</t>
   </si>
   <si>
     <t>Line Check</t>
@@ -236,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -292,13 +264,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4877481E-1A58-48BE-B48A-6F4615613E70}" name="Table1" displayName="Table1" ref="A1:D43" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D43" xr:uid="{4877481E-1A58-48BE-B48A-6F4615613E70}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="8th Sep"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D43" xr:uid="{4877481E-1A58-48BE-B48A-6F4615613E70}"/>
   <tableColumns count="4">
     <tableColumn id="5" xr3:uid="{407A9BB9-3800-4C04-89B8-E44AF4D8D6FD}" name="Date" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{078106E2-52AC-4063-A2C4-16153FC6CF9E}" name="Instrutor" dataDxfId="2"/>
@@ -574,13 +540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
@@ -600,9 +566,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -614,335 +581,359 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <f>DATE(2025,9,2)</f>
+        <v>45902</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <f>DATE(2025,9,2)</f>
+        <v>45902</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>DATE(2025,9,3)</f>
+        <v>45903</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <f t="shared" ref="A8:A11" si="0">DATE(2025,9,3)</f>
+        <v>45903</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>45903</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>45903</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <f>DATE(2025,9,4)</f>
+        <v>45904</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <f t="shared" ref="A12:A16" si="1">DATE(2025,9,4)</f>
+        <v>45904</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>45904</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>45904</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>45904</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>45904</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <f>DATE(2025,9,5)</f>
+        <v>45905</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <f t="shared" ref="A18:A21" si="2">DATE(2025,9,5)</f>
+        <v>45905</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <f t="shared" si="2"/>
+        <v>45905</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <f t="shared" si="2"/>
+        <v>45905</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <f t="shared" si="2"/>
+        <v>45905</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <f>DATE(2025,9,6)</f>
+        <v>45906</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <f t="shared" ref="A23:A29" si="3">DATE(2025,9,6)</f>
+        <v>45906</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
+        <v>45906</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <f t="shared" si="3"/>
+        <v>45906</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <f t="shared" si="3"/>
+        <v>45906</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -951,40 +942,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <f t="shared" si="3"/>
+        <v>45906</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <f t="shared" si="3"/>
+        <v>45906</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <f>DATE(2025,9,7)</f>
+        <v>45907</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -993,54 +987,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <f t="shared" ref="A30:A32" si="4">DATE(2025,9,7)</f>
+        <v>45907</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <f t="shared" si="4"/>
+        <v>45907</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <f t="shared" si="4"/>
+        <v>45907</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
+      <c r="A33" s="6">
+        <f>DATE(2025,9,8)</f>
+        <v>45908</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1050,53 +1048,57 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
+      <c r="A34" s="6">
+        <f t="shared" ref="A34:A36" si="5">DATE(2025,9,8)</f>
+        <v>45908</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>14</v>
+      <c r="A35" s="6">
+        <f t="shared" si="5"/>
+        <v>45908</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
+      <c r="A36" s="6">
+        <f t="shared" si="5"/>
+        <v>45908</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <f>DATE(2025,9,9)</f>
+        <v>45909</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1105,85 +1107,91 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <f t="shared" ref="A38:A40" si="6">DATE(2025,9,9)</f>
+        <v>45909</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <f t="shared" si="6"/>
+        <v>45909</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <f t="shared" si="6"/>
+        <v>45909</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <f>DATE(2025,9,10)</f>
+        <v>45910</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <f t="shared" ref="A42:A43" si="7">DATE(2025,9,10)</f>
+        <v>45910</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <f t="shared" si="7"/>
+        <v>45910</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
